--- a/reports/ParameterConfidenceInterval.xlsx
+++ b/reports/ParameterConfidenceInterval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodenico/Documents/Pro/Articles/2020_EvolExp/AnalysisEvolExp2020/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D4243-093A-9F40-AC7D-FE88C2875599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BEB193-B95F-A74E-87BC-83B6C4F804D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9FCF8C29-C92B-334A-B851-EEB54088983C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{9FCF8C29-C92B-334A-B851-EEB54088983C}"/>
   </bookViews>
   <sheets>
     <sheet name="AverageFitness" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Lavalviability" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PopulationFitness!$A$1:$L$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PopulationFitness!$A$1:$N$79</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="153">
   <si>
     <t>sigma.Line</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>Dif97.5%</t>
+  </si>
+  <si>
+    <t>InterGLMzero</t>
+  </si>
+  <si>
+    <t>Interdeltazero</t>
   </si>
 </sst>
 </file>
@@ -1195,20 +1201,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F968C2-89C3-7A49-9244-CFBC6EE624C9}">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="H2:K4"/>
+      <selection activeCell="I5" sqref="I5:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="16" max="19" width="10.83203125" style="1"/>
+    <col min="18" max="21" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>109</v>
       </c>
@@ -1228,55 +1234,61 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
         <v>148</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>141</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>142</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>143</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1298,12 +1310,8 @@
       <c r="G2" s="1">
         <v>3.354304655</v>
       </c>
-      <c r="H2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" t="s">
-        <v>147</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" t="s">
         <v>147</v>
       </c>
@@ -1322,10 +1330,10 @@
       <c r="O2" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>147</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -1334,10 +1342,10 @@
       <c r="S2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>147</v>
       </c>
       <c r="V2" t="s">
@@ -1346,8 +1354,14 @@
       <c r="W2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1369,12 +1383,8 @@
       <c r="G3" s="1">
         <v>3.3994333229999998</v>
       </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>147</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" t="s">
         <v>147</v>
       </c>
@@ -1393,10 +1403,10 @@
       <c r="O3" t="s">
         <v>147</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>147</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1405,10 +1415,10 @@
       <c r="S3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>147</v>
       </c>
       <c r="V3" t="s">
@@ -1417,8 +1427,14 @@
       <c r="W3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1440,12 +1456,8 @@
       <c r="G4" s="1">
         <v>3.4895811490000002</v>
       </c>
-      <c r="H4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" t="s">
-        <v>147</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" t="s">
         <v>147</v>
       </c>
@@ -1464,10 +1476,10 @@
       <c r="O4" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>147</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>147</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1476,10 +1488,10 @@
       <c r="S4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>147</v>
       </c>
       <c r="V4" t="s">
@@ -1488,8 +1500,14 @@
       <c r="W4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1512,60 +1530,68 @@
         <v>0.19699988900000001</v>
       </c>
       <c r="H5" s="1">
-        <f>E5-P5</f>
-        <v>0</v>
+        <f>IF(F5*G5&lt;0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <f>F5-(P5-1.96*Q5)</f>
+        <f>IF(T5*U5&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f>E5-R5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>F5-(R5-1.96*S5)</f>
         <v>7.6266177599999985E-2</v>
       </c>
-      <c r="J5" s="1">
-        <f>F5-(P5-1.96*Q5)</f>
+      <c r="L5" s="1">
+        <f>F5-(R5-1.96*S5)</f>
         <v>7.6266177599999985E-2</v>
       </c>
-      <c r="K5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
         <v>111</v>
       </c>
-      <c r="M5" t="s">
-        <v>106</v>
-      </c>
-      <c r="N5">
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5">
         <v>7</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>-0.27403676999999999</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>0.25731180999999997</v>
       </c>
-      <c r="R5" s="1">
-        <f>P5-1.96*Q5</f>
+      <c r="T5" s="1">
+        <f>R5-1.96*S5</f>
         <v>-0.77836791760000001</v>
       </c>
-      <c r="S5" s="1">
-        <f>P5+1.96*Q5</f>
+      <c r="U5" s="1">
+        <f>R5+1.96*S5</f>
         <v>0.23029437759999999</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5" t="s">
-        <v>106</v>
+      <c r="V5">
+        <v>1</v>
       </c>
       <c r="W5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1588,60 +1614,68 @@
         <v>-0.36903256899999998</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H69" si="0">E6-P6</f>
+        <f t="shared" ref="H6:H69" si="0">IF(F6*G6&lt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I69" si="1">F6-(P6-1.96*Q6)</f>
+        <f t="shared" ref="I6:I69" si="1">IF(T6*U6&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J69" si="2">E6-R6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K69" si="3">F6-(R6-1.96*S6)</f>
         <v>0.20771830839999983</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6:J69" si="2">F6-(P6-1.96*Q6)</f>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L69" si="4">F6-(R6-1.96*S6)</f>
         <v>0.20771830839999983</v>
       </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s">
         <v>111</v>
       </c>
-      <c r="M6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6">
+      <c r="O6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6">
         <v>7</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>8</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>-0.91247392999999999</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>0.35826854000000002</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" ref="R6:R69" si="3">P6-1.96*Q6</f>
+      <c r="T6" s="1">
+        <f t="shared" ref="T6:T69" si="5">R6-1.96*S6</f>
         <v>-1.6146802683999999</v>
       </c>
-      <c r="S6" s="1">
-        <f t="shared" ref="S6:S69" si="4">P6+1.96*Q6</f>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:U69" si="6">R6+1.96*S6</f>
         <v>-0.21026759159999997</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" t="s">
-        <v>107</v>
+      <c r="V6">
+        <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1665,59 +1699,67 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>-0.25900193760000001</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
         <v>-0.25900193760000001</v>
       </c>
-      <c r="K7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.25900193760000001</v>
+      </c>
+      <c r="M7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" t="s">
         <v>111</v>
       </c>
-      <c r="M7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7">
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>8</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>9.5532430000000002E-2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>0.10218769</v>
       </c>
-      <c r="R7" s="1">
-        <f t="shared" si="3"/>
+      <c r="T7" s="1">
+        <f t="shared" si="5"/>
         <v>-0.10475544239999998</v>
       </c>
-      <c r="S7" s="1">
-        <f t="shared" si="4"/>
+      <c r="U7" s="1">
+        <f t="shared" si="6"/>
         <v>0.29582030240000001</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>106</v>
-      </c>
-      <c r="V7" t="s">
-        <v>108</v>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1741,59 +1783,67 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>0.47041848159999988</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>0.47041848159999988</v>
       </c>
-      <c r="K8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47041848159999988</v>
+      </c>
+      <c r="M8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s">
         <v>112</v>
       </c>
-      <c r="M8" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8">
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8">
         <v>7</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>4</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>-0.56171884000000005</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>0.57349395999999997</v>
       </c>
-      <c r="R8" s="1">
-        <f t="shared" si="3"/>
+      <c r="T8" s="1">
+        <f t="shared" si="5"/>
         <v>-1.6857670015999999</v>
       </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
+      <c r="U8" s="1">
+        <f t="shared" si="6"/>
         <v>0.56232932159999993</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" t="s">
-        <v>106</v>
+      <c r="V8">
+        <v>1</v>
       </c>
       <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1817,59 +1867,67 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>-0.40323324999999999</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
         <v>-0.40323324999999999</v>
       </c>
-      <c r="K9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.40323324999999999</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="M9" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9">
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>-0.20357839999999999</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>0.16132474999999999</v>
       </c>
-      <c r="R9" s="1">
-        <f t="shared" si="3"/>
+      <c r="T9" s="1">
+        <f t="shared" si="5"/>
         <v>-0.51977490999999998</v>
       </c>
-      <c r="S9" s="1">
-        <f t="shared" si="4"/>
+      <c r="U9" s="1">
+        <f t="shared" si="6"/>
         <v>0.11261810999999999</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>106</v>
-      </c>
-      <c r="V9" t="s">
-        <v>107</v>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1893,59 +1951,67 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>-0.64798361640000002</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
         <v>-0.64798361640000002</v>
       </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.64798361640000002</v>
+      </c>
+      <c r="M10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" t="s">
         <v>112</v>
       </c>
-      <c r="M10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10">
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10">
         <v>7</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>0.22906382</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>9.5059660000000004E-2</v>
       </c>
-      <c r="R10" s="1">
-        <f t="shared" si="3"/>
+      <c r="T10" s="1">
+        <f t="shared" si="5"/>
         <v>4.2746886399999989E-2</v>
       </c>
-      <c r="S10" s="1">
-        <f t="shared" si="4"/>
+      <c r="U10" s="1">
+        <f t="shared" si="6"/>
         <v>0.41538075360000004</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V10" t="s">
-        <v>108</v>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1969,59 +2035,67 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.14326088320000002</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
         <v>-0.14326088320000002</v>
       </c>
-      <c r="K11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.14326088320000002</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s">
         <v>113</v>
       </c>
-      <c r="M11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11">
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>13</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>0.18528246000000001</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>0.11827433</v>
       </c>
-      <c r="R11" s="1">
-        <f t="shared" si="3"/>
+      <c r="T11" s="1">
+        <f t="shared" si="5"/>
         <v>-4.6535226799999968E-2</v>
       </c>
-      <c r="S11" s="1">
-        <f t="shared" si="4"/>
+      <c r="U11" s="1">
+        <f t="shared" si="6"/>
         <v>0.41710014679999996</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V11" t="s">
-        <v>106</v>
+      <c r="V11">
+        <v>1</v>
       </c>
       <c r="W11" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2045,59 +2119,67 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>-0.10436552680000005</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
         <v>-0.10436552680000005</v>
       </c>
-      <c r="K12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.10436552680000005</v>
+      </c>
+      <c r="M12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" t="s">
         <v>113</v>
       </c>
-      <c r="M12" t="s">
-        <v>106</v>
-      </c>
-      <c r="N12">
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>12</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>-0.11040117000000001</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>0.14664716999999999</v>
       </c>
-      <c r="R12" s="1">
-        <f t="shared" si="3"/>
+      <c r="T12" s="1">
+        <f t="shared" si="5"/>
         <v>-0.39782962319999998</v>
       </c>
-      <c r="S12" s="1">
-        <f t="shared" si="4"/>
+      <c r="U12" s="1">
+        <f t="shared" si="6"/>
         <v>0.1770272832</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" t="s">
-        <v>107</v>
+      <c r="V12">
+        <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2121,59 +2203,67 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.14663357920000003</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
         <v>-0.14663357920000003</v>
       </c>
-      <c r="K13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.14663357920000003</v>
+      </c>
+      <c r="M13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" t="s">
         <v>113</v>
       </c>
-      <c r="M13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13">
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13">
         <v>7</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>13</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>-1.404263E-2</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>0.11687823</v>
       </c>
-      <c r="R13" s="1">
-        <f t="shared" si="3"/>
+      <c r="T13" s="1">
+        <f t="shared" si="5"/>
         <v>-0.24312396079999998</v>
       </c>
-      <c r="S13" s="1">
-        <f t="shared" si="4"/>
+      <c r="U13" s="1">
+        <f t="shared" si="6"/>
         <v>0.21503870079999998</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>106</v>
-      </c>
-      <c r="V13" t="s">
-        <v>108</v>
+      <c r="V13">
+        <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2197,59 +2287,67 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>-8.9216442399999984E-2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
         <v>-8.9216442399999984E-2</v>
       </c>
-      <c r="K14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.9216442399999984E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" t="s">
         <v>114</v>
       </c>
-      <c r="M14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14">
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14">
         <v>7</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>5</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>0.12791340000000001</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>0.24311831</v>
       </c>
-      <c r="R14" s="1">
-        <f t="shared" si="3"/>
+      <c r="T14" s="1">
+        <f t="shared" si="5"/>
         <v>-0.34859848760000001</v>
       </c>
-      <c r="S14" s="1">
-        <f t="shared" si="4"/>
+      <c r="U14" s="1">
+        <f t="shared" si="6"/>
         <v>0.60442528760000003</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14" t="s">
-        <v>106</v>
-      </c>
-      <c r="V14" t="s">
-        <v>106</v>
+      <c r="V14">
+        <v>1</v>
       </c>
       <c r="W14" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2273,59 +2371,67 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.24525729839999999</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
         <v>-0.24525729839999999</v>
       </c>
-      <c r="K15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.24525729839999999</v>
+      </c>
+      <c r="M15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" t="s">
         <v>114</v>
       </c>
-      <c r="M15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N15">
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15">
         <v>7</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>5</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>0.46904715000000002</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>0.15911446000000001</v>
       </c>
-      <c r="R15" s="1">
-        <f t="shared" si="3"/>
+      <c r="T15" s="1">
+        <f t="shared" si="5"/>
         <v>0.15718280839999998</v>
       </c>
-      <c r="S15" s="1">
-        <f t="shared" si="4"/>
+      <c r="U15" s="1">
+        <f t="shared" si="6"/>
         <v>0.78091149160000006</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>106</v>
-      </c>
-      <c r="V15" t="s">
-        <v>107</v>
+      <c r="V15">
+        <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>106</v>
+      </c>
+      <c r="X15" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2349,59 +2455,67 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>-0.12194196039999998</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
         <v>-0.12194196039999998</v>
       </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.12194196039999998</v>
+      </c>
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" t="s">
         <v>114</v>
       </c>
-      <c r="M16" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16">
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16">
         <v>7</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>4</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <v>0.58712668999999995</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="1">
         <v>0.24889101</v>
       </c>
-      <c r="R16" s="1">
-        <f t="shared" si="3"/>
+      <c r="T16" s="1">
+        <f t="shared" si="5"/>
         <v>9.930031039999998E-2</v>
       </c>
-      <c r="S16" s="1">
-        <f t="shared" si="4"/>
+      <c r="U16" s="1">
+        <f t="shared" si="6"/>
         <v>1.0749530695999998</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V16" t="s">
-        <v>108</v>
+      <c r="V16">
+        <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>106</v>
+      </c>
+      <c r="X16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2425,59 +2539,66 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0.63167185999999997</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R17" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S17" s="1" t="e">
+      <c r="L17" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>107</v>
-      </c>
-      <c r="V17" t="s">
-        <v>106</v>
+      <c r="M17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.63167185999999997</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T17" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2501,59 +2622,67 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>-0.2005775132</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
         <v>-0.2005775132</v>
       </c>
-      <c r="K18" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.2005775132</v>
+      </c>
+      <c r="M18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" t="s">
         <v>115</v>
       </c>
-      <c r="M18" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18">
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18">
         <v>7</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>4</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>0.26983737000000002</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="1">
         <v>0.21318308</v>
       </c>
-      <c r="R18" s="1">
-        <f t="shared" si="3"/>
+      <c r="T18" s="1">
+        <f t="shared" si="5"/>
         <v>-0.14800146679999998</v>
       </c>
-      <c r="S18" s="1">
-        <f t="shared" si="4"/>
+      <c r="U18" s="1">
+        <f t="shared" si="6"/>
         <v>0.68767620679999997</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18" t="s">
-        <v>107</v>
-      </c>
-      <c r="V18" t="s">
-        <v>107</v>
+      <c r="V18">
+        <v>1</v>
       </c>
       <c r="W18" t="s">
+        <v>107</v>
+      </c>
+      <c r="X18" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2577,59 +2706,67 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21210615160000001</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
         <v>-0.21210615160000001</v>
       </c>
-      <c r="K19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.21210615160000001</v>
+      </c>
+      <c r="M19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" t="s">
         <v>115</v>
       </c>
-      <c r="M19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19">
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19">
         <v>7</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>-0.46408336</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="S19" s="1">
         <v>0.33645654000000003</v>
       </c>
-      <c r="R19" s="1">
-        <f t="shared" si="3"/>
+      <c r="T19" s="1">
+        <f t="shared" si="5"/>
         <v>-1.1235381784</v>
       </c>
-      <c r="S19" s="1">
-        <f t="shared" si="4"/>
+      <c r="U19" s="1">
+        <f t="shared" si="6"/>
         <v>0.19537145840000009</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>107</v>
-      </c>
-      <c r="V19" t="s">
-        <v>108</v>
+      <c r="V19">
+        <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>107</v>
+      </c>
+      <c r="X19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2653,59 +2790,67 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>-0.28268760040000007</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
         <v>-0.28268760040000007</v>
       </c>
-      <c r="K20" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.28268760040000007</v>
+      </c>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" t="s">
         <v>116</v>
       </c>
-      <c r="M20" t="s">
-        <v>107</v>
-      </c>
-      <c r="N20">
+      <c r="O20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20">
         <v>7</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>4</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>0.37883652000000001</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>0.17052150999999999</v>
       </c>
-      <c r="R20" s="1">
-        <f t="shared" si="3"/>
+      <c r="T20" s="1">
+        <f t="shared" si="5"/>
         <v>4.4614360400000053E-2</v>
       </c>
-      <c r="S20" s="1">
-        <f t="shared" si="4"/>
+      <c r="U20" s="1">
+        <f t="shared" si="6"/>
         <v>0.71305867960000002</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>107</v>
-      </c>
-      <c r="V20" t="s">
-        <v>106</v>
+      <c r="V20">
+        <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>107</v>
+      </c>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2729,59 +2874,67 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>0.38272477839999997</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
         <v>0.38272477839999997</v>
       </c>
-      <c r="K21" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38272477839999997</v>
+      </c>
+      <c r="M21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" t="s">
         <v>116</v>
       </c>
-      <c r="M21" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21">
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21">
         <v>7</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>6</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>-0.10684877</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="S21" s="1">
         <v>0.46435229</v>
       </c>
-      <c r="R21" s="1">
-        <f t="shared" si="3"/>
+      <c r="T21" s="1">
+        <f t="shared" si="5"/>
         <v>-1.0169792583999999</v>
       </c>
-      <c r="S21" s="1">
-        <f t="shared" si="4"/>
+      <c r="U21" s="1">
+        <f t="shared" si="6"/>
         <v>0.80328171839999996</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21" t="s">
-        <v>107</v>
-      </c>
-      <c r="V21" t="s">
-        <v>107</v>
+      <c r="V21">
+        <v>1</v>
       </c>
       <c r="W21" t="s">
+        <v>107</v>
+      </c>
+      <c r="X21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2805,59 +2958,67 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>-0.27933735240000002</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
         <v>-0.27933735240000002</v>
       </c>
-      <c r="K22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.27933735240000002</v>
+      </c>
+      <c r="M22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s">
         <v>116</v>
       </c>
-      <c r="M22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N22">
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22">
         <v>7</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>4</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22" s="1">
         <v>0.23598426</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="S22" s="1">
         <v>0.17222730999999999</v>
       </c>
-      <c r="R22" s="1">
-        <f t="shared" si="3"/>
+      <c r="T22" s="1">
+        <f t="shared" si="5"/>
         <v>-0.10158126759999997</v>
       </c>
-      <c r="S22" s="1">
-        <f t="shared" si="4"/>
+      <c r="U22" s="1">
+        <f t="shared" si="6"/>
         <v>0.57354978759999997</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
-        <v>107</v>
-      </c>
-      <c r="V22" t="s">
-        <v>108</v>
+      <c r="V22">
+        <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>107</v>
+      </c>
+      <c r="X22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2885,55 +3046,63 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7823225599999937E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
         <v>-1.7823225599999937E-2</v>
       </c>
-      <c r="K23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.7823225599999937E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" t="s">
         <v>117</v>
       </c>
-      <c r="M23" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23">
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23">
         <v>7</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>19</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>-0.62165117999999997</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="S23" s="1">
         <v>0.16184714</v>
       </c>
-      <c r="R23" s="1">
-        <f t="shared" si="3"/>
+      <c r="T23" s="1">
+        <f t="shared" si="5"/>
         <v>-0.93887157440000002</v>
       </c>
-      <c r="S23" s="1">
-        <f t="shared" si="4"/>
+      <c r="U23" s="1">
+        <f t="shared" si="6"/>
         <v>-0.30443078559999998</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>107</v>
-      </c>
-      <c r="V23" t="s">
-        <v>106</v>
+      <c r="V23">
+        <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>107</v>
+      </c>
+      <c r="X23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2957,59 +3126,67 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>-4.2023799600000022E-2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
         <v>-4.2023799600000022E-2</v>
       </c>
-      <c r="K24" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.2023799600000022E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" t="s">
         <v>117</v>
       </c>
-      <c r="M24" t="s">
-        <v>107</v>
-      </c>
-      <c r="N24">
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24">
         <v>7</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>21</v>
       </c>
-      <c r="P24" s="1">
+      <c r="R24" s="1">
         <v>5.8098820000000002E-2</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="S24" s="1">
         <v>0.13676999000000001</v>
       </c>
-      <c r="R24" s="1">
-        <f t="shared" si="3"/>
+      <c r="T24" s="1">
+        <f t="shared" si="5"/>
         <v>-0.2099703604</v>
       </c>
-      <c r="S24" s="1">
-        <f t="shared" si="4"/>
+      <c r="U24" s="1">
+        <f t="shared" si="6"/>
         <v>0.32616800039999999</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24" t="s">
-        <v>107</v>
-      </c>
-      <c r="V24" t="s">
-        <v>107</v>
+      <c r="V24">
+        <v>1</v>
       </c>
       <c r="W24" t="s">
+        <v>107</v>
+      </c>
+      <c r="X24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -3033,59 +3210,67 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>-9.2196809200000021E-2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="3"/>
         <v>-9.2196809200000021E-2</v>
       </c>
-      <c r="K25" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.2196809200000021E-2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" t="s">
         <v>117</v>
       </c>
-      <c r="M25" t="s">
-        <v>107</v>
-      </c>
-      <c r="N25">
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25">
         <v>7</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>20</v>
       </c>
-      <c r="P25" s="1">
+      <c r="R25" s="1">
         <v>0.10658226</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="S25" s="1">
         <v>0.11335223</v>
       </c>
-      <c r="R25" s="1">
-        <f t="shared" si="3"/>
+      <c r="T25" s="1">
+        <f t="shared" si="5"/>
         <v>-0.11558811079999999</v>
       </c>
-      <c r="S25" s="1">
-        <f t="shared" si="4"/>
+      <c r="U25" s="1">
+        <f t="shared" si="6"/>
         <v>0.3287526308</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>107</v>
-      </c>
-      <c r="V25" t="s">
-        <v>108</v>
+      <c r="V25">
+        <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>107</v>
+      </c>
+      <c r="X25" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3109,59 +3294,67 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>-0.38318724840000001</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
         <v>-0.38318724840000001</v>
       </c>
-      <c r="K26" t="s">
-        <v>106</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.38318724840000001</v>
+      </c>
+      <c r="M26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" t="s">
         <v>118</v>
       </c>
-      <c r="M26" t="s">
-        <v>107</v>
-      </c>
-      <c r="N26">
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26">
         <v>7</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>5</v>
       </c>
-      <c r="P26" s="1">
+      <c r="R26" s="1">
         <v>0.20903895</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="S26" s="1">
         <v>9.2077210000000007E-2</v>
       </c>
-      <c r="R26" s="1">
-        <f t="shared" si="3"/>
+      <c r="T26" s="1">
+        <f t="shared" si="5"/>
         <v>2.8567618399999994E-2</v>
       </c>
-      <c r="S26" s="1">
-        <f t="shared" si="4"/>
+      <c r="U26" s="1">
+        <f t="shared" si="6"/>
         <v>0.38951028160000001</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26" t="s">
-        <v>107</v>
-      </c>
-      <c r="V26" t="s">
-        <v>106</v>
+      <c r="V26">
+        <v>0</v>
       </c>
       <c r="W26" t="s">
+        <v>107</v>
+      </c>
+      <c r="X26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3185,59 +3378,67 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>-0.26765643360000002</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="3"/>
         <v>-0.26765643360000002</v>
       </c>
-      <c r="K27" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.26765643360000002</v>
+      </c>
+      <c r="M27" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" t="s">
         <v>118</v>
       </c>
-      <c r="M27" t="s">
-        <v>107</v>
-      </c>
-      <c r="N27">
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27">
         <v>7</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>6</v>
       </c>
-      <c r="P27" s="1">
+      <c r="R27" s="1">
         <v>0.35156311000000001</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="S27" s="1">
         <v>0.12714934</v>
       </c>
-      <c r="R27" s="1">
-        <f t="shared" si="3"/>
+      <c r="T27" s="1">
+        <f t="shared" si="5"/>
         <v>0.10235040360000003</v>
       </c>
-      <c r="S27" s="1">
-        <f t="shared" si="4"/>
+      <c r="U27" s="1">
+        <f t="shared" si="6"/>
         <v>0.6007758164</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27" t="s">
-        <v>107</v>
-      </c>
-      <c r="V27" t="s">
-        <v>107</v>
+      <c r="V27">
+        <v>1</v>
       </c>
       <c r="W27" t="s">
+        <v>107</v>
+      </c>
+      <c r="X27" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3261,59 +3462,67 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>-0.28241351320000002</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="3"/>
         <v>-0.28241351320000002</v>
       </c>
-      <c r="K28" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.28241351320000002</v>
+      </c>
+      <c r="M28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" t="s">
         <v>118</v>
       </c>
-      <c r="M28" t="s">
-        <v>107</v>
-      </c>
-      <c r="N28">
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28">
         <v>7</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>5</v>
       </c>
-      <c r="P28" s="1">
+      <c r="R28" s="1">
         <v>0.52916841000000003</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="S28" s="1">
         <v>0.13879507999999999</v>
       </c>
-      <c r="R28" s="1">
-        <f t="shared" si="3"/>
+      <c r="T28" s="1">
+        <f t="shared" si="5"/>
         <v>0.25713005320000004</v>
       </c>
-      <c r="S28" s="1">
-        <f t="shared" si="4"/>
+      <c r="U28" s="1">
+        <f t="shared" si="6"/>
         <v>0.80120676680000003</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
-        <v>107</v>
-      </c>
-      <c r="V28" t="s">
-        <v>108</v>
+      <c r="V28">
+        <v>0</v>
       </c>
       <c r="W28" t="s">
+        <v>107</v>
+      </c>
+      <c r="X28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3337,59 +3546,67 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>8.1904770399999924E-2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
         <v>8.1904770399999924E-2</v>
       </c>
-      <c r="K29" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1904770399999924E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" t="s">
         <v>119</v>
       </c>
-      <c r="M29" t="s">
-        <v>107</v>
-      </c>
-      <c r="N29">
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29">
         <v>7</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>5</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>0.53337851000000003</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="S29" s="1">
         <v>0.32589323999999997</v>
       </c>
-      <c r="R29" s="1">
-        <f t="shared" si="3"/>
+      <c r="T29" s="1">
+        <f t="shared" si="5"/>
         <v>-0.10537224039999993</v>
       </c>
-      <c r="S29" s="1">
-        <f t="shared" si="4"/>
+      <c r="U29" s="1">
+        <f t="shared" si="6"/>
         <v>1.1721292604</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
-        <v>107</v>
-      </c>
-      <c r="V29" t="s">
-        <v>106</v>
+      <c r="V29">
+        <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>107</v>
+      </c>
+      <c r="X29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3413,59 +3630,67 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20239955880000002</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="3"/>
         <v>-0.20239955880000002</v>
       </c>
-      <c r="K30" t="s">
-        <v>107</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.20239955880000002</v>
+      </c>
+      <c r="M30" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" t="s">
         <v>119</v>
       </c>
-      <c r="M30" t="s">
-        <v>107</v>
-      </c>
-      <c r="N30">
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30">
         <v>7</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>7</v>
       </c>
-      <c r="P30" s="1">
+      <c r="R30" s="1">
         <v>0.18840335999999999</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="S30" s="1">
         <v>0.14497197000000001</v>
       </c>
-      <c r="R30" s="1">
-        <f t="shared" si="3"/>
+      <c r="T30" s="1">
+        <f t="shared" si="5"/>
         <v>-9.5741701200000001E-2</v>
       </c>
-      <c r="S30" s="1">
-        <f t="shared" si="4"/>
+      <c r="U30" s="1">
+        <f t="shared" si="6"/>
         <v>0.47254842119999996</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30" t="s">
-        <v>107</v>
-      </c>
-      <c r="V30" t="s">
-        <v>107</v>
+      <c r="V30">
+        <v>1</v>
       </c>
       <c r="W30" t="s">
+        <v>107</v>
+      </c>
+      <c r="X30" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3489,59 +3714,67 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>-6.2415648000000046E-2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
         <v>-6.2415648000000046E-2</v>
       </c>
-      <c r="K31" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.2415648000000046E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" t="s">
         <v>119</v>
       </c>
-      <c r="M31" t="s">
-        <v>107</v>
-      </c>
-      <c r="N31">
+      <c r="O31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31">
         <v>7</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>4</v>
       </c>
-      <c r="P31" s="1">
+      <c r="R31" s="1">
         <v>0.10343761</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="S31" s="1">
         <v>0.28463670000000002</v>
       </c>
-      <c r="R31" s="1">
-        <f t="shared" si="3"/>
+      <c r="T31" s="1">
+        <f t="shared" si="5"/>
         <v>-0.45445032199999996</v>
       </c>
-      <c r="S31" s="1">
-        <f t="shared" si="4"/>
+      <c r="U31" s="1">
+        <f t="shared" si="6"/>
         <v>0.66132554199999993</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>107</v>
-      </c>
-      <c r="V31" t="s">
-        <v>108</v>
+      <c r="V31">
+        <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>107</v>
+      </c>
+      <c r="X31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y31" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3569,55 +3802,63 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>-2.1638163199999991E-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="3"/>
         <v>-2.1638163199999991E-2</v>
       </c>
-      <c r="K32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.1638163199999991E-2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>106</v>
+      </c>
+      <c r="N32" t="s">
         <v>120</v>
       </c>
-      <c r="M32" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32">
+      <c r="O32" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32">
         <v>7</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>30</v>
       </c>
-      <c r="P32" s="1">
+      <c r="R32" s="1">
         <v>0.34257033999999997</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="S32" s="1">
         <v>0.12638458</v>
       </c>
-      <c r="R32" s="1">
-        <f t="shared" si="3"/>
+      <c r="T32" s="1">
+        <f t="shared" si="5"/>
         <v>9.4856563199999994E-2</v>
       </c>
-      <c r="S32" s="1">
-        <f t="shared" si="4"/>
+      <c r="U32" s="1">
+        <f t="shared" si="6"/>
         <v>0.59028411679999993</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>108</v>
-      </c>
-      <c r="V32" t="s">
-        <v>106</v>
+      <c r="V32">
+        <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>108</v>
+      </c>
+      <c r="X32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3645,55 +3886,63 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>-4.3072612000000024E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="3"/>
         <v>-4.3072612000000024E-2</v>
       </c>
-      <c r="K33" t="s">
-        <v>107</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.3072612000000024E-2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>107</v>
+      </c>
+      <c r="N33" t="s">
         <v>120</v>
       </c>
-      <c r="M33" t="s">
-        <v>108</v>
-      </c>
-      <c r="N33">
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33">
         <v>7</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>29</v>
       </c>
-      <c r="P33" s="1">
+      <c r="R33" s="1">
         <v>0.35171773000000001</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="S33" s="1">
         <v>0.1168893</v>
       </c>
-      <c r="R33" s="1">
-        <f t="shared" si="3"/>
+      <c r="T33" s="1">
+        <f t="shared" si="5"/>
         <v>0.12261470200000002</v>
       </c>
-      <c r="S33" s="1">
-        <f t="shared" si="4"/>
+      <c r="U33" s="1">
+        <f t="shared" si="6"/>
         <v>0.58082075799999999</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>108</v>
-      </c>
-      <c r="V33" t="s">
-        <v>107</v>
+      <c r="V33">
+        <v>0</v>
       </c>
       <c r="W33" t="s">
+        <v>108</v>
+      </c>
+      <c r="X33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3721,55 +3970,63 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" si="1"/>
-        <v>-0.1008874684</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="3"/>
         <v>-0.1008874684</v>
       </c>
-      <c r="K34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.1008874684</v>
+      </c>
+      <c r="M34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N34" t="s">
         <v>120</v>
       </c>
-      <c r="M34" t="s">
-        <v>108</v>
-      </c>
-      <c r="N34">
+      <c r="O34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34">
         <v>7</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>32</v>
       </c>
-      <c r="P34" s="1">
+      <c r="R34" s="1">
         <v>0.33051044000000002</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="S34" s="1">
         <v>8.2222210000000004E-2</v>
       </c>
-      <c r="R34" s="1">
-        <f t="shared" si="3"/>
+      <c r="T34" s="1">
+        <f t="shared" si="5"/>
         <v>0.1693549084</v>
       </c>
-      <c r="S34" s="1">
-        <f t="shared" si="4"/>
+      <c r="U34" s="1">
+        <f t="shared" si="6"/>
         <v>0.49166597160000003</v>
       </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34" t="s">
-        <v>108</v>
-      </c>
-      <c r="V34" t="s">
-        <v>108</v>
+      <c r="V34">
+        <v>1</v>
       </c>
       <c r="W34" t="s">
+        <v>108</v>
+      </c>
+      <c r="X34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3793,59 +4050,67 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="1"/>
-        <v>-0.17276068480000001</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="3"/>
         <v>-0.17276068480000001</v>
       </c>
-      <c r="K35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.17276068480000001</v>
+      </c>
+      <c r="M35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N35" t="s">
         <v>121</v>
       </c>
-      <c r="M35" t="s">
-        <v>108</v>
-      </c>
-      <c r="N35">
+      <c r="O35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35">
         <v>7</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>6</v>
       </c>
-      <c r="P35" s="1">
+      <c r="R35" s="1">
         <v>0.35574080000000002</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="S35" s="1">
         <v>0.17599212</v>
       </c>
-      <c r="R35" s="1">
-        <f t="shared" si="3"/>
+      <c r="T35" s="1">
+        <f t="shared" si="5"/>
         <v>1.0796244800000021E-2</v>
       </c>
-      <c r="S35" s="1">
-        <f t="shared" si="4"/>
+      <c r="U35" s="1">
+        <f t="shared" si="6"/>
         <v>0.70068535520000008</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
-        <v>108</v>
-      </c>
-      <c r="V35" t="s">
-        <v>106</v>
+      <c r="V35">
+        <v>0</v>
       </c>
       <c r="W35" t="s">
+        <v>108</v>
+      </c>
+      <c r="X35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3869,59 +4134,67 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="1"/>
-        <v>8.632176359999999E-2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="3"/>
         <v>8.632176359999999E-2</v>
       </c>
-      <c r="K36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1">
+        <f t="shared" si="4"/>
+        <v>8.632176359999999E-2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>107</v>
+      </c>
+      <c r="N36" t="s">
         <v>121</v>
       </c>
-      <c r="M36" t="s">
-        <v>108</v>
-      </c>
-      <c r="N36">
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36">
         <v>7</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>6</v>
       </c>
-      <c r="P36" s="1">
+      <c r="R36" s="1">
         <v>-0.16525952999999999</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="S36" s="1">
         <v>0.31399990999999999</v>
       </c>
-      <c r="R36" s="1">
-        <f t="shared" si="3"/>
+      <c r="T36" s="1">
+        <f t="shared" si="5"/>
         <v>-0.78069935359999998</v>
       </c>
-      <c r="S36" s="1">
-        <f t="shared" si="4"/>
+      <c r="U36" s="1">
+        <f t="shared" si="6"/>
         <v>0.45018029359999995</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36" t="s">
-        <v>108</v>
-      </c>
-      <c r="V36" t="s">
-        <v>107</v>
+      <c r="V36">
+        <v>0</v>
       </c>
       <c r="W36" t="s">
+        <v>108</v>
+      </c>
+      <c r="X36" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3945,59 +4218,67 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="1"/>
-        <v>-0.16942772720000004</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="3"/>
         <v>-0.16942772720000004</v>
       </c>
-      <c r="K37" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.16942772720000004</v>
+      </c>
+      <c r="M37" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" t="s">
         <v>121</v>
       </c>
-      <c r="M37" t="s">
-        <v>108</v>
-      </c>
-      <c r="N37">
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37">
         <v>7</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>6</v>
       </c>
-      <c r="P37" s="1">
+      <c r="R37" s="1">
         <v>9.0227370000000001E-2</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="S37" s="1">
         <v>0.17892717999999999</v>
       </c>
-      <c r="R37" s="1">
-        <f t="shared" si="3"/>
+      <c r="T37" s="1">
+        <f t="shared" si="5"/>
         <v>-0.26046990279999993</v>
       </c>
-      <c r="S37" s="1">
-        <f t="shared" si="4"/>
+      <c r="U37" s="1">
+        <f t="shared" si="6"/>
         <v>0.44092464279999999</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" t="s">
-        <v>108</v>
-      </c>
-      <c r="V37" t="s">
-        <v>108</v>
+      <c r="V37">
+        <v>1</v>
       </c>
       <c r="W37" t="s">
+        <v>108</v>
+      </c>
+      <c r="X37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -4025,55 +4306,63 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" si="1"/>
-        <v>-2.5009826800000041E-2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="3"/>
         <v>-2.5009826800000041E-2</v>
       </c>
-      <c r="K38" t="s">
-        <v>106</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.5009826800000041E-2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" t="s">
         <v>122</v>
       </c>
-      <c r="M38" t="s">
-        <v>108</v>
-      </c>
-      <c r="N38">
+      <c r="O38" t="s">
+        <v>108</v>
+      </c>
+      <c r="P38">
         <v>7</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>5</v>
       </c>
-      <c r="P38" s="1">
+      <c r="R38" s="1">
         <v>0.57925811000000005</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="S38" s="1">
         <v>0.27093666999999999</v>
       </c>
-      <c r="R38" s="1">
-        <f t="shared" si="3"/>
+      <c r="T38" s="1">
+        <f t="shared" si="5"/>
         <v>4.822223680000004E-2</v>
       </c>
-      <c r="S38" s="1">
-        <f t="shared" si="4"/>
+      <c r="U38" s="1">
+        <f t="shared" si="6"/>
         <v>1.1102939832000001</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38" t="s">
-        <v>108</v>
-      </c>
-      <c r="V38" t="s">
-        <v>106</v>
+      <c r="V38">
+        <v>0</v>
       </c>
       <c r="W38" t="s">
+        <v>108</v>
+      </c>
+      <c r="X38" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4097,59 +4386,67 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="1"/>
-        <v>-0.12242656439999999</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="3"/>
         <v>-0.12242656439999999</v>
       </c>
-      <c r="K39" t="s">
-        <v>107</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.12242656439999999</v>
+      </c>
+      <c r="M39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" t="s">
         <v>122</v>
       </c>
-      <c r="M39" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39">
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39">
         <v>7</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>5</v>
       </c>
-      <c r="P39" s="1">
+      <c r="R39" s="1">
         <v>0.17013801000000001</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="S39" s="1">
         <v>0.22500460999999999</v>
       </c>
-      <c r="R39" s="1">
-        <f t="shared" si="3"/>
+      <c r="T39" s="1">
+        <f t="shared" si="5"/>
         <v>-0.27087102559999998</v>
       </c>
-      <c r="S39" s="1">
-        <f t="shared" si="4"/>
+      <c r="U39" s="1">
+        <f t="shared" si="6"/>
         <v>0.61114704559999999</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>108</v>
-      </c>
-      <c r="V39" t="s">
-        <v>107</v>
+      <c r="V39">
+        <v>0</v>
       </c>
       <c r="W39" t="s">
+        <v>108</v>
+      </c>
+      <c r="X39" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4173,59 +4470,67 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="1"/>
-        <v>-0.15478928960000002</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="3"/>
         <v>-0.15478928960000002</v>
       </c>
-      <c r="K40" t="s">
-        <v>108</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.15478928960000002</v>
+      </c>
+      <c r="M40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" t="s">
         <v>122</v>
       </c>
-      <c r="M40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N40">
+      <c r="O40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40">
         <v>7</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>7</v>
       </c>
-      <c r="P40" s="1">
+      <c r="R40" s="1">
         <v>0.13335674</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="S40" s="1">
         <v>0.16884573999999999</v>
       </c>
-      <c r="R40" s="1">
-        <f t="shared" si="3"/>
+      <c r="T40" s="1">
+        <f t="shared" si="5"/>
         <v>-0.1975809104</v>
       </c>
-      <c r="S40" s="1">
-        <f t="shared" si="4"/>
+      <c r="U40" s="1">
+        <f t="shared" si="6"/>
         <v>0.46429439039999998</v>
       </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40" t="s">
-        <v>108</v>
-      </c>
-      <c r="V40" t="s">
-        <v>108</v>
+      <c r="V40">
+        <v>1</v>
       </c>
       <c r="W40" t="s">
+        <v>108</v>
+      </c>
+      <c r="X40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4253,55 +4558,63 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" si="1"/>
-        <v>-0.13130499399999995</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="3"/>
         <v>-0.13130499399999995</v>
       </c>
-      <c r="K41" t="s">
-        <v>106</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.13130499399999995</v>
+      </c>
+      <c r="M41" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" t="s">
         <v>123</v>
       </c>
-      <c r="M41" t="s">
-        <v>108</v>
-      </c>
-      <c r="N41">
+      <c r="O41" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41">
         <v>7</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>19</v>
       </c>
-      <c r="P41" s="1">
+      <c r="R41" s="1">
         <v>0.72972691999999995</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="S41" s="1">
         <v>9.4787850000000007E-2</v>
       </c>
-      <c r="R41" s="1">
-        <f t="shared" si="3"/>
+      <c r="T41" s="1">
+        <f t="shared" si="5"/>
         <v>0.54394273399999993</v>
       </c>
-      <c r="S41" s="1">
-        <f t="shared" si="4"/>
+      <c r="U41" s="1">
+        <f t="shared" si="6"/>
         <v>0.91551110599999996</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41" t="s">
-        <v>108</v>
-      </c>
-      <c r="V41" t="s">
-        <v>106</v>
+      <c r="V41">
+        <v>0</v>
       </c>
       <c r="W41" t="s">
+        <v>108</v>
+      </c>
+      <c r="X41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4329,55 +4642,63 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7637590800000023E-2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="3"/>
         <v>-1.7637590800000023E-2</v>
       </c>
-      <c r="K42" t="s">
-        <v>107</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.7637590800000023E-2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>107</v>
+      </c>
+      <c r="N42" t="s">
         <v>123</v>
       </c>
-      <c r="M42" t="s">
-        <v>108</v>
-      </c>
-      <c r="N42">
+      <c r="O42" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42">
         <v>7</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>17</v>
       </c>
-      <c r="P42" s="1">
+      <c r="R42" s="1">
         <v>0.36284191999999998</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="S42" s="1">
         <v>0.16130227</v>
       </c>
-      <c r="R42" s="1">
-        <f t="shared" si="3"/>
+      <c r="T42" s="1">
+        <f t="shared" si="5"/>
         <v>4.6689470800000021E-2</v>
       </c>
-      <c r="S42" s="1">
-        <f t="shared" si="4"/>
+      <c r="U42" s="1">
+        <f t="shared" si="6"/>
         <v>0.6789943692</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>108</v>
-      </c>
-      <c r="V42" t="s">
-        <v>107</v>
+      <c r="V42">
+        <v>0</v>
       </c>
       <c r="W42" t="s">
+        <v>108</v>
+      </c>
+      <c r="X42" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4405,55 +4726,63 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" si="1"/>
-        <v>-6.3084840400000008E-2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="3"/>
         <v>-6.3084840400000008E-2</v>
       </c>
-      <c r="K43" t="s">
-        <v>108</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.3084840400000008E-2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" t="s">
         <v>123</v>
       </c>
-      <c r="M43" t="s">
-        <v>108</v>
-      </c>
-      <c r="N43">
+      <c r="O43" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43">
         <v>7</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>18</v>
       </c>
-      <c r="P43" s="1">
+      <c r="R43" s="1">
         <v>0.58063315999999998</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="S43" s="1">
         <v>0.13295025999999999</v>
       </c>
-      <c r="R43" s="1">
-        <f t="shared" si="3"/>
+      <c r="T43" s="1">
+        <f t="shared" si="5"/>
         <v>0.32005065040000003</v>
       </c>
-      <c r="S43" s="1">
-        <f t="shared" si="4"/>
+      <c r="U43" s="1">
+        <f t="shared" si="6"/>
         <v>0.84121566959999994</v>
       </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="U43" t="s">
-        <v>108</v>
-      </c>
-      <c r="V43" t="s">
-        <v>108</v>
+      <c r="V43">
+        <v>1</v>
       </c>
       <c r="W43" t="s">
+        <v>108</v>
+      </c>
+      <c r="X43" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -4477,59 +4806,66 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J44" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="1">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" t="s">
-        <v>106</v>
-      </c>
-      <c r="L44" t="s">
-        <v>124</v>
-      </c>
-      <c r="M44" t="s">
-        <v>108</v>
-      </c>
-      <c r="N44">
-        <v>7</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.30788478000000002</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R44" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S44" s="1" t="e">
+      <c r="L44" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44" t="s">
-        <v>108</v>
-      </c>
-      <c r="V44" t="s">
-        <v>106</v>
+      <c r="M44" t="s">
+        <v>106</v>
+      </c>
+      <c r="N44" t="s">
+        <v>124</v>
+      </c>
+      <c r="O44" t="s">
+        <v>108</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.30788478000000002</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T44" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U44" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
       </c>
       <c r="W44" t="s">
+        <v>108</v>
+      </c>
+      <c r="X44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4553,59 +4889,66 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="1">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" t="s">
-        <v>107</v>
-      </c>
-      <c r="L45" t="s">
-        <v>124</v>
-      </c>
-      <c r="M45" t="s">
-        <v>108</v>
-      </c>
-      <c r="N45">
-        <v>7</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.39971245999999999</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R45" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S45" s="1" t="e">
+      <c r="L45" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45" t="s">
-        <v>108</v>
-      </c>
-      <c r="V45" t="s">
-        <v>107</v>
+      <c r="M45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N45" t="s">
+        <v>124</v>
+      </c>
+      <c r="O45" t="s">
+        <v>108</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.39971245999999999</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T45" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U45" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
       </c>
       <c r="W45" t="s">
+        <v>108</v>
+      </c>
+      <c r="X45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4629,59 +4972,67 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="1"/>
-        <v>-0.34478222680000004</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="3"/>
         <v>-0.34478222680000004</v>
       </c>
-      <c r="K46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="L46" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.34478222680000004</v>
+      </c>
+      <c r="M46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" t="s">
         <v>124</v>
       </c>
-      <c r="M46" t="s">
-        <v>108</v>
-      </c>
-      <c r="N46">
+      <c r="O46" t="s">
+        <v>108</v>
+      </c>
+      <c r="P46">
         <v>7</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>2</v>
       </c>
-      <c r="P46" s="1">
+      <c r="R46" s="1">
         <v>0.18650420000000001</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="S46" s="1">
         <v>0.25058617</v>
       </c>
-      <c r="R46" s="1">
-        <f t="shared" si="3"/>
+      <c r="T46" s="1">
+        <f t="shared" si="5"/>
         <v>-0.30464469319999998</v>
       </c>
-      <c r="S46" s="1">
-        <f t="shared" si="4"/>
+      <c r="U46" s="1">
+        <f t="shared" si="6"/>
         <v>0.6776530932</v>
       </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46" t="s">
-        <v>108</v>
-      </c>
-      <c r="V46" t="s">
-        <v>108</v>
+      <c r="V46">
+        <v>1</v>
       </c>
       <c r="W46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X46" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y46" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4705,59 +5056,67 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="1"/>
-        <v>3.7715844000000012E-2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="3"/>
         <v>3.7715844000000012E-2</v>
       </c>
-      <c r="K47" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7715844000000012E-2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" t="s">
         <v>125</v>
       </c>
-      <c r="M47" t="s">
-        <v>106</v>
-      </c>
-      <c r="N47">
+      <c r="O47" t="s">
+        <v>106</v>
+      </c>
+      <c r="P47">
         <v>29</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>30</v>
       </c>
-      <c r="P47" s="1">
+      <c r="R47" s="1">
         <v>0.14767</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="S47" s="1">
         <v>0.1574284</v>
       </c>
-      <c r="R47" s="1">
-        <f t="shared" si="3"/>
+      <c r="T47" s="1">
+        <f t="shared" si="5"/>
         <v>-0.16088966400000002</v>
       </c>
-      <c r="S47" s="1">
-        <f t="shared" si="4"/>
+      <c r="U47" s="1">
+        <f t="shared" si="6"/>
         <v>0.45622966399999998</v>
       </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="U47" t="s">
-        <v>106</v>
-      </c>
-      <c r="V47" t="s">
-        <v>106</v>
+      <c r="V47">
+        <v>1</v>
       </c>
       <c r="W47" t="s">
+        <v>106</v>
+      </c>
+      <c r="X47" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y47" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -4781,59 +5140,67 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="1"/>
-        <v>-1.3562476400000023E-2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="3"/>
         <v>-1.3562476400000023E-2</v>
       </c>
-      <c r="K48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.3562476400000023E-2</v>
+      </c>
+      <c r="M48" t="s">
+        <v>107</v>
+      </c>
+      <c r="N48" t="s">
         <v>125</v>
       </c>
-      <c r="M48" t="s">
-        <v>106</v>
-      </c>
-      <c r="N48">
+      <c r="O48" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48">
         <v>29</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>30</v>
       </c>
-      <c r="P48" s="1">
+      <c r="R48" s="1">
         <v>-0.21774071</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="S48" s="1">
         <v>0.13281291000000001</v>
       </c>
-      <c r="R48" s="1">
-        <f t="shared" si="3"/>
+      <c r="T48" s="1">
+        <f t="shared" si="5"/>
         <v>-0.47805401359999999</v>
       </c>
-      <c r="S48" s="1">
-        <f t="shared" si="4"/>
+      <c r="U48" s="1">
+        <f t="shared" si="6"/>
         <v>4.2572593599999986E-2</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48" t="s">
-        <v>106</v>
-      </c>
-      <c r="V48" t="s">
-        <v>107</v>
+      <c r="V48">
+        <v>0</v>
       </c>
       <c r="W48" t="s">
+        <v>106</v>
+      </c>
+      <c r="X48" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y48" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -4857,59 +5224,67 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="1"/>
-        <v>1.8724447199999994E-2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="3"/>
         <v>1.8724447199999994E-2</v>
       </c>
-      <c r="K49" t="s">
-        <v>108</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8724447199999994E-2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>108</v>
+      </c>
+      <c r="N49" t="s">
         <v>125</v>
       </c>
-      <c r="M49" t="s">
-        <v>106</v>
-      </c>
-      <c r="N49">
+      <c r="O49" t="s">
+        <v>106</v>
+      </c>
+      <c r="P49">
         <v>29</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>30</v>
       </c>
-      <c r="P49" s="1">
+      <c r="R49" s="1">
         <v>1.971359E-2</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="S49" s="1">
         <v>0.14751756999999999</v>
       </c>
-      <c r="R49" s="1">
-        <f t="shared" si="3"/>
+      <c r="T49" s="1">
+        <f t="shared" si="5"/>
         <v>-0.26942084719999998</v>
       </c>
-      <c r="S49" s="1">
-        <f t="shared" si="4"/>
+      <c r="U49" s="1">
+        <f t="shared" si="6"/>
         <v>0.30884802719999999</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49" t="s">
-        <v>106</v>
-      </c>
-      <c r="V49" t="s">
-        <v>108</v>
+      <c r="V49">
+        <v>0</v>
       </c>
       <c r="W49" t="s">
+        <v>106</v>
+      </c>
+      <c r="X49" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -4933,59 +5308,67 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="1"/>
-        <v>-7.2088797200000013E-2</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="3"/>
         <v>-7.2088797200000013E-2</v>
       </c>
-      <c r="K50" t="s">
-        <v>106</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="L50" s="1">
+        <f t="shared" si="4"/>
+        <v>-7.2088797200000013E-2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" t="s">
         <v>126</v>
       </c>
-      <c r="M50" t="s">
-        <v>106</v>
-      </c>
-      <c r="N50">
+      <c r="O50" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50">
         <v>29</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>30</v>
       </c>
-      <c r="P50" s="1">
+      <c r="R50" s="1">
         <v>0.25038029000000001</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="S50" s="1">
         <v>0.10098643</v>
       </c>
-      <c r="R50" s="1">
-        <f t="shared" si="3"/>
+      <c r="T50" s="1">
+        <f t="shared" si="5"/>
         <v>5.2446887200000014E-2</v>
       </c>
-      <c r="S50" s="1">
-        <f t="shared" si="4"/>
+      <c r="U50" s="1">
+        <f t="shared" si="6"/>
         <v>0.4483136928</v>
       </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50" t="s">
-        <v>106</v>
-      </c>
-      <c r="V50" t="s">
-        <v>106</v>
+      <c r="V50">
+        <v>1</v>
       </c>
       <c r="W50" t="s">
+        <v>106</v>
+      </c>
+      <c r="X50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y50" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -5013,55 +5396,63 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" si="1"/>
-        <v>-9.0211045999999961E-2</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="3"/>
         <v>-9.0211045999999961E-2</v>
       </c>
-      <c r="K51" t="s">
-        <v>107</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.0211045999999961E-2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>107</v>
+      </c>
+      <c r="N51" t="s">
         <v>126</v>
       </c>
-      <c r="M51" t="s">
-        <v>106</v>
-      </c>
-      <c r="N51">
+      <c r="O51" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51">
         <v>29</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>30</v>
       </c>
-      <c r="P51" s="1">
+      <c r="R51" s="1">
         <v>-0.59200204000000001</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="S51" s="1">
         <v>9.6349400000000002E-2</v>
       </c>
-      <c r="R51" s="1">
-        <f t="shared" si="3"/>
+      <c r="T51" s="1">
+        <f t="shared" si="5"/>
         <v>-0.78084686400000003</v>
       </c>
-      <c r="S51" s="1">
-        <f t="shared" si="4"/>
+      <c r="U51" s="1">
+        <f t="shared" si="6"/>
         <v>-0.40315721599999998</v>
       </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51" t="s">
-        <v>106</v>
-      </c>
-      <c r="V51" t="s">
-        <v>107</v>
+      <c r="V51">
+        <v>0</v>
       </c>
       <c r="W51" t="s">
+        <v>106</v>
+      </c>
+      <c r="X51" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y51" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -5085,59 +5476,67 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="1"/>
-        <v>-7.9269556000000019E-2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="3"/>
         <v>-7.9269556000000019E-2</v>
       </c>
-      <c r="K52" t="s">
-        <v>108</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="L52" s="1">
+        <f t="shared" si="4"/>
+        <v>-7.9269556000000019E-2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" t="s">
         <v>126</v>
       </c>
-      <c r="M52" t="s">
-        <v>106</v>
-      </c>
-      <c r="N52">
+      <c r="O52" t="s">
+        <v>106</v>
+      </c>
+      <c r="P52">
         <v>29</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>30</v>
       </c>
-      <c r="P52" s="1">
+      <c r="R52" s="1">
         <v>-0.1585068</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="S52" s="1">
         <v>9.8350400000000004E-2</v>
       </c>
-      <c r="R52" s="1">
-        <f t="shared" si="3"/>
+      <c r="T52" s="1">
+        <f t="shared" si="5"/>
         <v>-0.35127358399999997</v>
       </c>
-      <c r="S52" s="1">
-        <f t="shared" si="4"/>
+      <c r="U52" s="1">
+        <f t="shared" si="6"/>
         <v>3.4259983999999993E-2</v>
       </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>106</v>
-      </c>
-      <c r="V52" t="s">
-        <v>108</v>
+      <c r="V52">
+        <v>0</v>
       </c>
       <c r="W52" t="s">
+        <v>106</v>
+      </c>
+      <c r="X52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y52" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -5165,55 +5564,63 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" si="1"/>
-        <v>-4.0059128799999996E-2</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="3"/>
         <v>-4.0059128799999996E-2</v>
       </c>
-      <c r="K53" t="s">
-        <v>106</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="L53" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.0059128799999996E-2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" t="s">
         <v>127</v>
       </c>
-      <c r="M53" t="s">
-        <v>106</v>
-      </c>
-      <c r="N53">
+      <c r="O53" t="s">
+        <v>106</v>
+      </c>
+      <c r="P53">
         <v>29</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>30</v>
       </c>
-      <c r="P53" s="1">
+      <c r="R53" s="1">
         <v>0.35854061999999998</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="S53" s="1">
         <v>0.11692996999999999</v>
       </c>
-      <c r="R53" s="1">
-        <f t="shared" si="3"/>
+      <c r="T53" s="1">
+        <f t="shared" si="5"/>
         <v>0.12935787879999999</v>
       </c>
-      <c r="S53" s="1">
-        <f t="shared" si="4"/>
+      <c r="U53" s="1">
+        <f t="shared" si="6"/>
         <v>0.58772336119999991</v>
       </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53" t="s">
-        <v>106</v>
-      </c>
-      <c r="V53" t="s">
-        <v>106</v>
+      <c r="V53">
+        <v>1</v>
       </c>
       <c r="W53" t="s">
+        <v>106</v>
+      </c>
+      <c r="X53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -5237,59 +5644,67 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="1"/>
-        <v>-2.6960435600000054E-2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="3"/>
         <v>-2.6960435600000054E-2</v>
       </c>
-      <c r="K54" t="s">
-        <v>107</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="L54" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.6960435600000054E-2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>107</v>
+      </c>
+      <c r="N54" t="s">
         <v>127</v>
       </c>
-      <c r="M54" t="s">
-        <v>106</v>
-      </c>
-      <c r="N54">
+      <c r="O54" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54">
         <v>29</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>30</v>
       </c>
-      <c r="P54" s="1">
+      <c r="R54" s="1">
         <v>-0.20670828999999999</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="S54" s="1">
         <v>0.12591289</v>
       </c>
-      <c r="R54" s="1">
-        <f t="shared" si="3"/>
+      <c r="T54" s="1">
+        <f t="shared" si="5"/>
         <v>-0.45349755439999995</v>
       </c>
-      <c r="S54" s="1">
-        <f t="shared" si="4"/>
+      <c r="U54" s="1">
+        <f t="shared" si="6"/>
         <v>4.0080974399999997E-2</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54" t="s">
-        <v>106</v>
-      </c>
-      <c r="V54" t="s">
-        <v>107</v>
+      <c r="V54">
+        <v>0</v>
       </c>
       <c r="W54" t="s">
+        <v>106</v>
+      </c>
+      <c r="X54" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -5313,59 +5728,67 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="1"/>
-        <v>-2.6337553600000001E-2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="3"/>
         <v>-2.6337553600000001E-2</v>
       </c>
-      <c r="K55" t="s">
-        <v>108</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="L55" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.6337553600000001E-2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>108</v>
+      </c>
+      <c r="N55" t="s">
         <v>127</v>
       </c>
-      <c r="M55" t="s">
-        <v>106</v>
-      </c>
-      <c r="N55">
+      <c r="O55" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55">
         <v>29</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>30</v>
       </c>
-      <c r="P55" s="1">
+      <c r="R55" s="1">
         <v>0.21131464</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="S55" s="1">
         <v>0.12378209</v>
       </c>
-      <c r="R55" s="1">
-        <f t="shared" si="3"/>
+      <c r="T55" s="1">
+        <f t="shared" si="5"/>
         <v>-3.1298256400000002E-2</v>
       </c>
-      <c r="S55" s="1">
-        <f t="shared" si="4"/>
+      <c r="U55" s="1">
+        <f t="shared" si="6"/>
         <v>0.4539275364</v>
       </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55" t="s">
-        <v>106</v>
-      </c>
-      <c r="V55" t="s">
-        <v>108</v>
+      <c r="V55">
+        <v>0</v>
       </c>
       <c r="W55" t="s">
+        <v>106</v>
+      </c>
+      <c r="X55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y55" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -5393,55 +5816,63 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" si="1"/>
-        <v>-7.2969267599999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="3"/>
         <v>-7.2969267599999998E-2</v>
       </c>
-      <c r="K56" t="s">
-        <v>106</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="L56" s="1">
+        <f t="shared" si="4"/>
+        <v>-7.2969267599999998E-2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" t="s">
         <v>128</v>
       </c>
-      <c r="M56" t="s">
-        <v>107</v>
-      </c>
-      <c r="N56">
+      <c r="O56" t="s">
+        <v>107</v>
+      </c>
+      <c r="P56">
         <v>29</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>30</v>
       </c>
-      <c r="P56" s="1">
+      <c r="R56" s="1">
         <v>0.32537793999999998</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="S56" s="1">
         <v>0.10025669</v>
       </c>
-      <c r="R56" s="1">
-        <f t="shared" si="3"/>
+      <c r="T56" s="1">
+        <f t="shared" si="5"/>
         <v>0.12887482759999999</v>
       </c>
-      <c r="S56" s="1">
-        <f t="shared" si="4"/>
+      <c r="U56" s="1">
+        <f t="shared" si="6"/>
         <v>0.52188105239999993</v>
       </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56" t="s">
-        <v>107</v>
-      </c>
-      <c r="V56" t="s">
-        <v>106</v>
+      <c r="V56">
+        <v>0</v>
       </c>
       <c r="W56" t="s">
+        <v>107</v>
+      </c>
+      <c r="X56" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y56" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -5465,59 +5896,67 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="1"/>
-        <v>-3.9173987999999993E-2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="3"/>
         <v>-3.9173987999999993E-2</v>
       </c>
-      <c r="K57" t="s">
-        <v>107</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="L57" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.9173987999999993E-2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>107</v>
+      </c>
+      <c r="N57" t="s">
         <v>128</v>
       </c>
-      <c r="M57" t="s">
-        <v>107</v>
-      </c>
-      <c r="N57">
+      <c r="O57" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57">
         <v>29</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>30</v>
       </c>
-      <c r="P57" s="1">
+      <c r="R57" s="1">
         <v>-0.1488535</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="S57" s="1">
         <v>0.11935519999999999</v>
       </c>
-      <c r="R57" s="1">
-        <f t="shared" si="3"/>
+      <c r="T57" s="1">
+        <f t="shared" si="5"/>
         <v>-0.38278969200000001</v>
       </c>
-      <c r="S57" s="1">
-        <f t="shared" si="4"/>
+      <c r="U57" s="1">
+        <f t="shared" si="6"/>
         <v>8.5082691999999988E-2</v>
       </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57" t="s">
-        <v>107</v>
-      </c>
-      <c r="V57" t="s">
-        <v>107</v>
+      <c r="V57">
+        <v>1</v>
       </c>
       <c r="W57" t="s">
+        <v>107</v>
+      </c>
+      <c r="X57" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y57" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -5545,55 +5984,63 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" si="1"/>
-        <v>-5.8278202799999956E-2</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="3"/>
         <v>-5.8278202799999956E-2</v>
       </c>
-      <c r="K58" t="s">
-        <v>108</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="L58" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.8278202799999956E-2</v>
+      </c>
+      <c r="M58" t="s">
+        <v>108</v>
+      </c>
+      <c r="N58" t="s">
         <v>128</v>
       </c>
-      <c r="M58" t="s">
-        <v>107</v>
-      </c>
-      <c r="N58">
+      <c r="O58" t="s">
+        <v>107</v>
+      </c>
+      <c r="P58">
         <v>29</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>30</v>
       </c>
-      <c r="P58" s="1">
+      <c r="R58" s="1">
         <v>-0.29731422000000002</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="S58" s="1">
         <v>0.10981407</v>
       </c>
-      <c r="R58" s="1">
-        <f t="shared" si="3"/>
+      <c r="T58" s="1">
+        <f t="shared" si="5"/>
         <v>-0.51254979720000005</v>
       </c>
-      <c r="S58" s="1">
-        <f t="shared" si="4"/>
+      <c r="U58" s="1">
+        <f t="shared" si="6"/>
         <v>-8.2078642800000018E-2</v>
       </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58" t="s">
-        <v>107</v>
-      </c>
-      <c r="V58" t="s">
-        <v>108</v>
+      <c r="V58">
+        <v>0</v>
       </c>
       <c r="W58" t="s">
+        <v>107</v>
+      </c>
+      <c r="X58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y58" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -5617,59 +6064,67 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="1"/>
-        <v>-2.1762882000000025E-2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="3"/>
         <v>-2.1762882000000025E-2</v>
       </c>
-      <c r="K59" t="s">
-        <v>106</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="L59" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.1762882000000025E-2</v>
+      </c>
+      <c r="M59" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" t="s">
         <v>129</v>
       </c>
-      <c r="M59" t="s">
-        <v>107</v>
-      </c>
-      <c r="N59">
+      <c r="O59" t="s">
+        <v>107</v>
+      </c>
+      <c r="P59">
         <v>29</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>30</v>
       </c>
-      <c r="P59" s="1">
+      <c r="R59" s="1">
         <v>0.16929862000000001</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="S59" s="1">
         <v>0.1269903</v>
       </c>
-      <c r="R59" s="1">
-        <f t="shared" si="3"/>
+      <c r="T59" s="1">
+        <f t="shared" si="5"/>
         <v>-7.9602367999999979E-2</v>
       </c>
-      <c r="S59" s="1">
-        <f t="shared" si="4"/>
+      <c r="U59" s="1">
+        <f t="shared" si="6"/>
         <v>0.418199608</v>
       </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="s">
-        <v>107</v>
-      </c>
-      <c r="V59" t="s">
-        <v>106</v>
+      <c r="V59">
+        <v>0</v>
       </c>
       <c r="W59" t="s">
+        <v>107</v>
+      </c>
+      <c r="X59" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y59" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -5697,55 +6152,63 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" si="1"/>
-        <v>3.0891300800000049E-2</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="3"/>
         <v>3.0891300800000049E-2</v>
       </c>
-      <c r="K60" t="s">
-        <v>107</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="L60" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0891300800000049E-2</v>
+      </c>
+      <c r="M60" t="s">
+        <v>107</v>
+      </c>
+      <c r="N60" t="s">
         <v>129</v>
       </c>
-      <c r="M60" t="s">
-        <v>107</v>
-      </c>
-      <c r="N60">
+      <c r="O60" t="s">
+        <v>107</v>
+      </c>
+      <c r="P60">
         <v>29</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>30</v>
       </c>
-      <c r="P60" s="1">
+      <c r="R60" s="1">
         <v>0.29719688999999999</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="S60" s="1">
         <v>0.15311973000000001</v>
       </c>
-      <c r="R60" s="1">
-        <f t="shared" si="3"/>
+      <c r="T60" s="1">
+        <f t="shared" si="5"/>
         <v>-2.9177808000000471E-3</v>
       </c>
-      <c r="S60" s="1">
-        <f t="shared" si="4"/>
+      <c r="U60" s="1">
+        <f t="shared" si="6"/>
         <v>0.59731156080000003</v>
       </c>
-      <c r="T60">
-        <v>1</v>
-      </c>
-      <c r="U60" t="s">
-        <v>107</v>
-      </c>
-      <c r="V60" t="s">
-        <v>107</v>
+      <c r="V60">
+        <v>1</v>
       </c>
       <c r="W60" t="s">
+        <v>107</v>
+      </c>
+      <c r="X60" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y60" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -5769,59 +6232,67 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0771935999999149E-3</v>
+        <v>1</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="3"/>
         <v>-1.0771935999999149E-3</v>
       </c>
-      <c r="K61" t="s">
-        <v>108</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="L61" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.0771935999999149E-3</v>
+      </c>
+      <c r="M61" t="s">
+        <v>108</v>
+      </c>
+      <c r="N61" t="s">
         <v>129</v>
       </c>
-      <c r="M61" t="s">
-        <v>107</v>
-      </c>
-      <c r="N61">
+      <c r="O61" t="s">
+        <v>107</v>
+      </c>
+      <c r="P61">
         <v>29</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>30</v>
       </c>
-      <c r="P61" s="1">
+      <c r="R61" s="1">
         <v>-0.24539416</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="S61" s="1">
         <v>0.13870434000000001</v>
       </c>
-      <c r="R61" s="1">
-        <f t="shared" si="3"/>
+      <c r="T61" s="1">
+        <f t="shared" si="5"/>
         <v>-0.51725466640000006</v>
       </c>
-      <c r="S61" s="1">
-        <f t="shared" si="4"/>
+      <c r="U61" s="1">
+        <f t="shared" si="6"/>
         <v>2.6466346400000035E-2</v>
       </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61" t="s">
-        <v>107</v>
-      </c>
-      <c r="V61" t="s">
-        <v>108</v>
+      <c r="V61">
+        <v>0</v>
       </c>
       <c r="W61" t="s">
+        <v>107</v>
+      </c>
+      <c r="X61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y61" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -5845,59 +6316,67 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="1"/>
-        <v>-2.9631419200000036E-2</v>
+        <v>1</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="3"/>
         <v>-2.9631419200000036E-2</v>
       </c>
-      <c r="K62" t="s">
-        <v>106</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="L62" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.9631419200000036E-2</v>
+      </c>
+      <c r="M62" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" t="s">
         <v>130</v>
       </c>
-      <c r="M62" t="s">
-        <v>107</v>
-      </c>
-      <c r="N62">
+      <c r="O62" t="s">
+        <v>107</v>
+      </c>
+      <c r="P62">
         <v>29</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>30</v>
       </c>
-      <c r="P62" s="1">
+      <c r="R62" s="1">
         <v>8.4741230000000001E-2</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="S62" s="1">
         <v>0.12334597999999999</v>
       </c>
-      <c r="R62" s="1">
-        <f t="shared" si="3"/>
+      <c r="T62" s="1">
+        <f t="shared" si="5"/>
         <v>-0.15701689079999998</v>
       </c>
-      <c r="S62" s="1">
-        <f t="shared" si="4"/>
+      <c r="U62" s="1">
+        <f t="shared" si="6"/>
         <v>0.32649935079999998</v>
       </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62" t="s">
-        <v>107</v>
-      </c>
-      <c r="V62" t="s">
-        <v>106</v>
+      <c r="V62">
+        <v>0</v>
       </c>
       <c r="W62" t="s">
+        <v>107</v>
+      </c>
+      <c r="X62" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y62" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -5921,59 +6400,67 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="1"/>
-        <v>-4.4722264799999994E-2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="3"/>
         <v>-4.4722264799999994E-2</v>
       </c>
-      <c r="K63" t="s">
-        <v>107</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="L63" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.4722264799999994E-2</v>
+      </c>
+      <c r="M63" t="s">
+        <v>107</v>
+      </c>
+      <c r="N63" t="s">
         <v>130</v>
       </c>
-      <c r="M63" t="s">
-        <v>107</v>
-      </c>
-      <c r="N63">
+      <c r="O63" t="s">
+        <v>107</v>
+      </c>
+      <c r="P63">
         <v>29</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>30</v>
       </c>
-      <c r="P63" s="1">
+      <c r="R63" s="1">
         <v>2.7037169999999999E-2</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="S63" s="1">
         <v>0.11563812</v>
       </c>
-      <c r="R63" s="1">
-        <f t="shared" si="3"/>
+      <c r="T63" s="1">
+        <f t="shared" si="5"/>
         <v>-0.19961354519999999</v>
       </c>
-      <c r="S63" s="1">
-        <f t="shared" si="4"/>
+      <c r="U63" s="1">
+        <f t="shared" si="6"/>
         <v>0.25368788519999996</v>
       </c>
-      <c r="T63">
-        <v>1</v>
-      </c>
-      <c r="U63" t="s">
-        <v>107</v>
-      </c>
-      <c r="V63" t="s">
-        <v>107</v>
+      <c r="V63">
+        <v>1</v>
       </c>
       <c r="W63" t="s">
+        <v>107</v>
+      </c>
+      <c r="X63" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -6001,55 +6488,63 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" si="1"/>
-        <v>0.12100368880000001</v>
+        <v>1</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="3"/>
         <v>0.12100368880000001</v>
       </c>
-      <c r="K64" t="s">
-        <v>108</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="L64" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12100368880000001</v>
+      </c>
+      <c r="M64" t="s">
+        <v>108</v>
+      </c>
+      <c r="N64" t="s">
         <v>130</v>
       </c>
-      <c r="M64" t="s">
-        <v>107</v>
-      </c>
-      <c r="N64">
+      <c r="O64" t="s">
+        <v>107</v>
+      </c>
+      <c r="P64">
         <v>29</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>30</v>
       </c>
-      <c r="P64" s="1">
+      <c r="R64" s="1">
         <v>-0.28950777999999999</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="S64" s="1">
         <v>0.20123927999999999</v>
       </c>
-      <c r="R64" s="1">
-        <f t="shared" si="3"/>
+      <c r="T64" s="1">
+        <f t="shared" si="5"/>
         <v>-0.68393676879999998</v>
       </c>
-      <c r="S64" s="1">
-        <f t="shared" si="4"/>
+      <c r="U64" s="1">
+        <f t="shared" si="6"/>
         <v>0.1049212088</v>
       </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64" t="s">
-        <v>107</v>
-      </c>
-      <c r="V64" t="s">
-        <v>108</v>
+      <c r="V64">
+        <v>0</v>
       </c>
       <c r="W64" t="s">
+        <v>107</v>
+      </c>
+      <c r="X64" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -6077,55 +6572,63 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" si="1"/>
-        <v>-7.7590177199999943E-2</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="3"/>
         <v>-7.7590177199999943E-2</v>
       </c>
-      <c r="K65" t="s">
-        <v>106</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="L65" s="1">
+        <f t="shared" si="4"/>
+        <v>-7.7590177199999943E-2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>106</v>
+      </c>
+      <c r="N65" t="s">
         <v>131</v>
       </c>
-      <c r="M65" t="s">
-        <v>107</v>
-      </c>
-      <c r="N65">
+      <c r="O65" t="s">
+        <v>107</v>
+      </c>
+      <c r="P65">
         <v>29</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>30</v>
       </c>
-      <c r="P65" s="1">
+      <c r="R65" s="1">
         <v>0.54736474999999996</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="S65" s="1">
         <v>9.7180180000000005E-2</v>
       </c>
-      <c r="R65" s="1">
-        <f t="shared" si="3"/>
+      <c r="T65" s="1">
+        <f t="shared" si="5"/>
         <v>0.35689159719999997</v>
       </c>
-      <c r="S65" s="1">
-        <f t="shared" si="4"/>
+      <c r="U65" s="1">
+        <f t="shared" si="6"/>
         <v>0.73783790279999995</v>
       </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65" t="s">
-        <v>107</v>
-      </c>
-      <c r="V65" t="s">
-        <v>106</v>
+      <c r="V65">
+        <v>0</v>
       </c>
       <c r="W65" t="s">
+        <v>107</v>
+      </c>
+      <c r="X65" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y65" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -6149,59 +6652,67 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="1"/>
-        <v>-4.6478069200000027E-2</v>
+        <v>1</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="3"/>
         <v>-4.6478069200000027E-2</v>
       </c>
-      <c r="K66" t="s">
-        <v>107</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="L66" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.6478069200000027E-2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>107</v>
+      </c>
+      <c r="N66" t="s">
         <v>131</v>
       </c>
-      <c r="M66" t="s">
-        <v>107</v>
-      </c>
-      <c r="N66">
+      <c r="O66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P66">
         <v>29</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>30</v>
       </c>
-      <c r="P66" s="1">
+      <c r="R66" s="1">
         <v>-0.15627743999999999</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="S66" s="1">
         <v>0.11566948000000001</v>
       </c>
-      <c r="R66" s="1">
-        <f t="shared" si="3"/>
+      <c r="T66" s="1">
+        <f t="shared" si="5"/>
         <v>-0.38298962079999999</v>
       </c>
-      <c r="S66" s="1">
-        <f t="shared" si="4"/>
+      <c r="U66" s="1">
+        <f t="shared" si="6"/>
         <v>7.0434740800000006E-2</v>
       </c>
-      <c r="T66">
-        <v>1</v>
-      </c>
-      <c r="U66" t="s">
-        <v>107</v>
-      </c>
-      <c r="V66" t="s">
-        <v>107</v>
+      <c r="V66">
+        <v>1</v>
       </c>
       <c r="W66" t="s">
+        <v>107</v>
+      </c>
+      <c r="X66" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -6229,55 +6740,63 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" si="1"/>
-        <v>8.7292931200000146E-2</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="3"/>
         <v>8.7292931200000146E-2</v>
       </c>
-      <c r="K67" t="s">
-        <v>108</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="L67" s="1">
+        <f t="shared" si="4"/>
+        <v>8.7292931200000146E-2</v>
+      </c>
+      <c r="M67" t="s">
+        <v>108</v>
+      </c>
+      <c r="N67" t="s">
         <v>131</v>
       </c>
-      <c r="M67" t="s">
-        <v>107</v>
-      </c>
-      <c r="N67">
+      <c r="O67" t="s">
+        <v>107</v>
+      </c>
+      <c r="P67">
         <v>29</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>30</v>
       </c>
-      <c r="P67" s="1">
+      <c r="R67" s="1">
         <v>-1.0255527200000001</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="S67" s="1">
         <v>0.19020822000000001</v>
       </c>
-      <c r="R67" s="1">
-        <f t="shared" si="3"/>
+      <c r="T67" s="1">
+        <f t="shared" si="5"/>
         <v>-1.3983608312000002</v>
       </c>
-      <c r="S67" s="1">
-        <f t="shared" si="4"/>
+      <c r="U67" s="1">
+        <f t="shared" si="6"/>
         <v>-0.65274460880000007</v>
       </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67" t="s">
-        <v>107</v>
-      </c>
-      <c r="V67" t="s">
-        <v>108</v>
+      <c r="V67">
+        <v>0</v>
       </c>
       <c r="W67" t="s">
+        <v>107</v>
+      </c>
+      <c r="X67" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y67" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -6301,59 +6820,67 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="1"/>
-        <v>-4.6749896399999991E-2</v>
+        <v>1</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="3"/>
         <v>-4.6749896399999991E-2</v>
       </c>
-      <c r="K68" t="s">
-        <v>106</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="L68" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.6749896399999991E-2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>106</v>
+      </c>
+      <c r="N68" t="s">
         <v>132</v>
       </c>
-      <c r="M68" t="s">
-        <v>107</v>
-      </c>
-      <c r="N68">
+      <c r="O68" t="s">
+        <v>107</v>
+      </c>
+      <c r="P68">
         <v>29</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>30</v>
       </c>
-      <c r="P68" s="1">
+      <c r="R68" s="1">
         <v>-0.10496044</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="S68" s="1">
         <v>0.11556266</v>
       </c>
-      <c r="R68" s="1">
-        <f t="shared" si="3"/>
+      <c r="T68" s="1">
+        <f t="shared" si="5"/>
         <v>-0.33146325360000001</v>
       </c>
-      <c r="S68" s="1">
-        <f t="shared" si="4"/>
+      <c r="U68" s="1">
+        <f t="shared" si="6"/>
         <v>0.12154237359999999</v>
       </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68" t="s">
-        <v>107</v>
-      </c>
-      <c r="V68" t="s">
-        <v>106</v>
+      <c r="V68">
+        <v>0</v>
       </c>
       <c r="W68" t="s">
+        <v>107</v>
+      </c>
+      <c r="X68" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -6381,55 +6908,63 @@
       </c>
       <c r="I69" s="1">
         <f t="shared" si="1"/>
-        <v>-1.6811610000000088E-2</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="3"/>
         <v>-1.6811610000000088E-2</v>
       </c>
-      <c r="K69" t="s">
-        <v>107</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="L69" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.6811610000000088E-2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>107</v>
+      </c>
+      <c r="N69" t="s">
         <v>132</v>
       </c>
-      <c r="M69" t="s">
-        <v>107</v>
-      </c>
-      <c r="N69">
+      <c r="O69" t="s">
+        <v>107</v>
+      </c>
+      <c r="P69">
         <v>29</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>30</v>
       </c>
-      <c r="P69" s="1">
+      <c r="R69" s="1">
         <v>0.72513486000000005</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="S69" s="1">
         <v>0.12754299999999999</v>
       </c>
-      <c r="R69" s="1">
-        <f t="shared" si="3"/>
+      <c r="T69" s="1">
+        <f t="shared" si="5"/>
         <v>0.4751505800000001</v>
       </c>
-      <c r="S69" s="1">
-        <f t="shared" si="4"/>
+      <c r="U69" s="1">
+        <f t="shared" si="6"/>
         <v>0.97511914</v>
       </c>
-      <c r="T69">
-        <v>1</v>
-      </c>
-      <c r="U69" t="s">
-        <v>107</v>
-      </c>
-      <c r="V69" t="s">
-        <v>107</v>
+      <c r="V69">
+        <v>1</v>
       </c>
       <c r="W69" t="s">
+        <v>107</v>
+      </c>
+      <c r="X69" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y69" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -6452,60 +6987,68 @@
         <v>0.115497271</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" ref="H70:H79" si="5">E70-P70</f>
-        <v>0</v>
+        <f t="shared" ref="H70:H79" si="7">IF(F70*G70&lt;0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" ref="I70:I79" si="6">F70-(P70-1.96*Q70)</f>
+        <f t="shared" ref="I70:I79" si="8">IF(T70*U70&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" ref="J70:J79" si="9">E70-R70</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" ref="K70:K79" si="10">F70-(R70-1.96*S70)</f>
         <v>1.8870115999999881E-3</v>
       </c>
-      <c r="J70" s="1">
-        <f t="shared" ref="J70:J79" si="7">F70-(P70-1.96*Q70)</f>
+      <c r="L70" s="1">
+        <f t="shared" ref="L70:L79" si="11">F70-(R70-1.96*S70)</f>
         <v>1.8870115999999881E-3</v>
       </c>
-      <c r="K70" t="s">
-        <v>108</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
+        <v>108</v>
+      </c>
+      <c r="N70" t="s">
         <v>132</v>
       </c>
-      <c r="M70" t="s">
-        <v>107</v>
-      </c>
-      <c r="N70">
+      <c r="O70" t="s">
+        <v>107</v>
+      </c>
+      <c r="P70">
         <v>29</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>30</v>
       </c>
-      <c r="P70" s="1">
+      <c r="R70" s="1">
         <v>-0.16810248999999999</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="S70" s="1">
         <v>0.13980571</v>
       </c>
-      <c r="R70" s="1">
-        <f t="shared" ref="R70:R79" si="8">P70-1.96*Q70</f>
+      <c r="T70" s="1">
+        <f t="shared" ref="T70:T79" si="12">R70-1.96*S70</f>
         <v>-0.44212168159999998</v>
       </c>
-      <c r="S70" s="1">
-        <f t="shared" ref="S70:S79" si="9">P70+1.96*Q70</f>
+      <c r="U70" s="1">
+        <f t="shared" ref="U70:U79" si="13">R70+1.96*S70</f>
         <v>0.1059167016</v>
       </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70" t="s">
-        <v>107</v>
-      </c>
-      <c r="V70" t="s">
-        <v>108</v>
+      <c r="V70">
+        <v>0</v>
       </c>
       <c r="W70" t="s">
+        <v>107</v>
+      </c>
+      <c r="X70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y70" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -6528,60 +7071,68 @@
         <v>-0.21666427499999999</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="10"/>
         <v>-8.3072871999999576E-3</v>
       </c>
-      <c r="J71" s="1">
-        <f t="shared" si="7"/>
+      <c r="L71" s="1">
+        <f t="shared" si="11"/>
         <v>-8.3072871999999576E-3</v>
       </c>
-      <c r="K71" t="s">
-        <v>106</v>
-      </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" t="s">
         <v>133</v>
       </c>
-      <c r="M71" t="s">
-        <v>108</v>
-      </c>
-      <c r="N71">
+      <c r="O71" t="s">
+        <v>108</v>
+      </c>
+      <c r="P71">
         <v>29</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>30</v>
       </c>
-      <c r="P71" s="1">
+      <c r="R71" s="1">
         <v>-0.50599095000000005</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="S71" s="1">
         <v>0.13786518</v>
       </c>
-      <c r="R71" s="1">
-        <f t="shared" si="8"/>
+      <c r="T71" s="1">
+        <f t="shared" si="12"/>
         <v>-0.77620670280000004</v>
       </c>
-      <c r="S71" s="1">
-        <f t="shared" si="9"/>
+      <c r="U71" s="1">
+        <f t="shared" si="13"/>
         <v>-0.23577519720000006</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71" t="s">
-        <v>108</v>
-      </c>
-      <c r="V71" t="s">
-        <v>106</v>
+      <c r="V71">
+        <v>0</v>
       </c>
       <c r="W71" t="s">
+        <v>108</v>
+      </c>
+      <c r="X71" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y71" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -6604,60 +7155,68 @@
         <v>3.3937386E-2</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="10"/>
         <v>6.1428869999999969E-2</v>
       </c>
-      <c r="J72" s="1">
-        <f t="shared" si="7"/>
+      <c r="L72" s="1">
+        <f t="shared" si="11"/>
         <v>6.1428869999999969E-2</v>
       </c>
-      <c r="K72" t="s">
-        <v>107</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72" t="s">
         <v>133</v>
       </c>
-      <c r="M72" t="s">
-        <v>108</v>
-      </c>
-      <c r="N72">
+      <c r="O72" t="s">
+        <v>108</v>
+      </c>
+      <c r="P72">
         <v>29</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>30</v>
       </c>
-      <c r="P72" s="1">
+      <c r="R72" s="1">
         <v>-0.25158762000000001</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="S72" s="1">
         <v>0.1712755</v>
       </c>
-      <c r="R72" s="1">
-        <f t="shared" si="8"/>
+      <c r="T72" s="1">
+        <f t="shared" si="12"/>
         <v>-0.58728760000000002</v>
       </c>
-      <c r="S72" s="1">
-        <f t="shared" si="9"/>
+      <c r="U72" s="1">
+        <f t="shared" si="13"/>
         <v>8.4112359999999997E-2</v>
       </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72" t="s">
-        <v>108</v>
-      </c>
-      <c r="V72" t="s">
-        <v>107</v>
+      <c r="V72">
+        <v>0</v>
       </c>
       <c r="W72" t="s">
+        <v>108</v>
+      </c>
+      <c r="X72" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -6680,60 +7239,68 @@
         <v>0.43817479300000001</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="10"/>
         <v>7.3296404000000176E-3</v>
       </c>
-      <c r="J73" s="1">
-        <f t="shared" si="7"/>
+      <c r="L73" s="1">
+        <f t="shared" si="11"/>
         <v>7.3296404000000176E-3</v>
       </c>
-      <c r="K73" t="s">
-        <v>108</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
+        <v>108</v>
+      </c>
+      <c r="N73" t="s">
         <v>133</v>
       </c>
-      <c r="M73" t="s">
-        <v>108</v>
-      </c>
-      <c r="N73">
+      <c r="O73" t="s">
+        <v>108</v>
+      </c>
+      <c r="P73">
         <v>29</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>30</v>
       </c>
-      <c r="P73" s="1">
+      <c r="R73" s="1">
         <v>0.15709032000000001</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="S73" s="1">
         <v>0.14115599000000001</v>
       </c>
-      <c r="R73" s="1">
-        <f t="shared" si="8"/>
+      <c r="T73" s="1">
+        <f t="shared" si="12"/>
         <v>-0.11957542040000002</v>
       </c>
-      <c r="S73" s="1">
-        <f t="shared" si="9"/>
+      <c r="U73" s="1">
+        <f t="shared" si="13"/>
         <v>0.43375606040000003</v>
       </c>
-      <c r="T73">
-        <v>1</v>
-      </c>
-      <c r="U73" t="s">
-        <v>108</v>
-      </c>
-      <c r="V73" t="s">
-        <v>108</v>
+      <c r="V73">
+        <v>1</v>
       </c>
       <c r="W73" t="s">
+        <v>108</v>
+      </c>
+      <c r="X73" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y73" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -6756,60 +7323,68 @@
         <v>0.47588183099999998</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="10"/>
         <v>-5.5880315200000003E-2</v>
       </c>
-      <c r="J74" s="1">
-        <f t="shared" si="7"/>
+      <c r="L74" s="1">
+        <f t="shared" si="11"/>
         <v>-5.5880315200000003E-2</v>
       </c>
-      <c r="K74" t="s">
-        <v>106</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
+        <v>106</v>
+      </c>
+      <c r="N74" t="s">
         <v>134</v>
       </c>
-      <c r="M74" t="s">
-        <v>108</v>
-      </c>
-      <c r="N74">
+      <c r="O74" t="s">
+        <v>108</v>
+      </c>
+      <c r="P74">
         <v>29</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>30</v>
       </c>
-      <c r="P74" s="1">
+      <c r="R74" s="1">
         <v>0.19377147</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="S74" s="1">
         <v>0.10948188</v>
       </c>
-      <c r="R74" s="1">
-        <f t="shared" si="8"/>
+      <c r="T74" s="1">
+        <f t="shared" si="12"/>
         <v>-2.0813014800000001E-2</v>
       </c>
-      <c r="S74" s="1">
-        <f t="shared" si="9"/>
+      <c r="U74" s="1">
+        <f t="shared" si="13"/>
         <v>0.40835595479999998</v>
       </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74" t="s">
-        <v>108</v>
-      </c>
-      <c r="V74" t="s">
-        <v>106</v>
+      <c r="V74">
+        <v>0</v>
       </c>
       <c r="W74" t="s">
+        <v>108</v>
+      </c>
+      <c r="X74" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y74" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -6832,60 +7407,68 @@
         <v>0.32583255900000002</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="10"/>
         <v>1.1230133199999992E-2</v>
       </c>
-      <c r="J75" s="1">
-        <f t="shared" si="7"/>
+      <c r="L75" s="1">
+        <f t="shared" si="11"/>
         <v>1.1230133199999992E-2</v>
       </c>
-      <c r="K75" t="s">
-        <v>107</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
+        <v>107</v>
+      </c>
+      <c r="N75" t="s">
         <v>134</v>
       </c>
-      <c r="M75" t="s">
-        <v>108</v>
-      </c>
-      <c r="N75">
+      <c r="O75" t="s">
+        <v>108</v>
+      </c>
+      <c r="P75">
         <v>29</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>30</v>
       </c>
-      <c r="P75" s="1">
+      <c r="R75" s="1">
         <v>4.3037510000000001E-2</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="S75" s="1">
         <v>0.14411192</v>
       </c>
-      <c r="R75" s="1">
-        <f t="shared" si="8"/>
+      <c r="T75" s="1">
+        <f t="shared" si="12"/>
         <v>-0.23942185319999998</v>
       </c>
-      <c r="S75" s="1">
-        <f t="shared" si="9"/>
+      <c r="U75" s="1">
+        <f t="shared" si="13"/>
         <v>0.32549687319999998</v>
       </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75" t="s">
-        <v>108</v>
-      </c>
-      <c r="V75" t="s">
-        <v>107</v>
+      <c r="V75">
+        <v>0</v>
       </c>
       <c r="W75" t="s">
+        <v>108</v>
+      </c>
+      <c r="X75" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y75" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -6908,60 +7491,68 @@
         <v>0.83912038300000003</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="10"/>
         <v>-1.5185900400000063E-2</v>
       </c>
-      <c r="J76" s="1">
-        <f t="shared" si="7"/>
+      <c r="L76" s="1">
+        <f t="shared" si="11"/>
         <v>-1.5185900400000063E-2</v>
       </c>
-      <c r="K76" t="s">
-        <v>108</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
+        <v>108</v>
+      </c>
+      <c r="N76" t="s">
         <v>134</v>
       </c>
-      <c r="M76" t="s">
-        <v>108</v>
-      </c>
-      <c r="N76">
+      <c r="O76" t="s">
+        <v>108</v>
+      </c>
+      <c r="P76">
         <v>29</v>
       </c>
-      <c r="O76">
+      <c r="Q76">
         <v>30</v>
       </c>
-      <c r="P76" s="1">
+      <c r="R76" s="1">
         <v>0.56023100000000003</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="S76" s="1">
         <v>0.12842825999999999</v>
       </c>
-      <c r="R76" s="1">
-        <f t="shared" si="8"/>
+      <c r="T76" s="1">
+        <f t="shared" si="12"/>
         <v>0.30851161040000008</v>
       </c>
-      <c r="S76" s="1">
-        <f t="shared" si="9"/>
+      <c r="U76" s="1">
+        <f t="shared" si="13"/>
         <v>0.81195038959999999</v>
       </c>
-      <c r="T76">
-        <v>1</v>
-      </c>
-      <c r="U76" t="s">
-        <v>108</v>
-      </c>
-      <c r="V76" t="s">
-        <v>108</v>
+      <c r="V76">
+        <v>1</v>
       </c>
       <c r="W76" t="s">
+        <v>108</v>
+      </c>
+      <c r="X76" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y76" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -6984,60 +7575,68 @@
         <v>0.60275741199999999</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="10"/>
         <v>-4.5947264799999971E-2</v>
       </c>
-      <c r="J77" s="1">
-        <f t="shared" si="7"/>
+      <c r="L77" s="1">
+        <f t="shared" si="11"/>
         <v>-4.5947264799999971E-2</v>
       </c>
-      <c r="K77" t="s">
-        <v>106</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
+        <v>106</v>
+      </c>
+      <c r="N77" t="s">
         <v>135</v>
       </c>
-      <c r="M77" t="s">
-        <v>108</v>
-      </c>
-      <c r="N77">
+      <c r="O77" t="s">
+        <v>108</v>
+      </c>
+      <c r="P77">
         <v>29</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>30</v>
       </c>
-      <c r="P77" s="1">
+      <c r="R77" s="1">
         <v>0.32151692999999998</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="S77" s="1">
         <v>0.11405737000000001</v>
       </c>
-      <c r="R77" s="1">
-        <f t="shared" si="8"/>
+      <c r="T77" s="1">
+        <f t="shared" si="12"/>
         <v>9.7964484799999973E-2</v>
       </c>
-      <c r="S77" s="1">
-        <f t="shared" si="9"/>
+      <c r="U77" s="1">
+        <f t="shared" si="13"/>
         <v>0.54506937519999998</v>
       </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77" t="s">
-        <v>108</v>
-      </c>
-      <c r="V77" t="s">
-        <v>106</v>
+      <c r="V77">
+        <v>0</v>
       </c>
       <c r="W77" t="s">
+        <v>108</v>
+      </c>
+      <c r="X77" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y77" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -7060,60 +7659,68 @@
         <v>0.80082467499999999</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="10"/>
         <v>-2.1881810400000035E-2</v>
       </c>
-      <c r="J78" s="1">
-        <f t="shared" si="7"/>
+      <c r="L78" s="1">
+        <f t="shared" si="11"/>
         <v>-2.1881810400000035E-2</v>
       </c>
-      <c r="K78" t="s">
-        <v>107</v>
-      </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
+        <v>107</v>
+      </c>
+      <c r="N78" t="s">
         <v>135</v>
       </c>
-      <c r="M78" t="s">
-        <v>108</v>
-      </c>
-      <c r="N78">
+      <c r="O78" t="s">
+        <v>108</v>
+      </c>
+      <c r="P78">
         <v>29</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>30</v>
       </c>
-      <c r="P78" s="1">
+      <c r="R78" s="1">
         <v>0.52109773000000004</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="S78" s="1">
         <v>0.12548201</v>
       </c>
-      <c r="R78" s="1">
-        <f t="shared" si="8"/>
+      <c r="T78" s="1">
+        <f t="shared" si="12"/>
         <v>0.27515299040000002</v>
       </c>
-      <c r="S78" s="1">
-        <f t="shared" si="9"/>
+      <c r="U78" s="1">
+        <f t="shared" si="13"/>
         <v>0.7670424696</v>
       </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78" t="s">
-        <v>108</v>
-      </c>
-      <c r="V78" t="s">
-        <v>107</v>
+      <c r="V78">
+        <v>0</v>
       </c>
       <c r="W78" t="s">
+        <v>108</v>
+      </c>
+      <c r="X78" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -7136,64 +7743,72 @@
         <v>0.64624504699999996</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="10"/>
         <v>-3.2525049200000003E-2</v>
       </c>
-      <c r="J79" s="1">
-        <f t="shared" si="7"/>
+      <c r="L79" s="1">
+        <f t="shared" si="11"/>
         <v>-3.2525049200000003E-2</v>
       </c>
-      <c r="K79" t="s">
-        <v>108</v>
-      </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
+        <v>108</v>
+      </c>
+      <c r="N79" t="s">
         <v>135</v>
       </c>
-      <c r="M79" t="s">
-        <v>108</v>
-      </c>
-      <c r="N79">
+      <c r="O79" t="s">
+        <v>108</v>
+      </c>
+      <c r="P79">
         <v>29</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>30</v>
       </c>
-      <c r="P79" s="1">
+      <c r="R79" s="1">
         <v>0.36640738</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="S79" s="1">
         <v>0.12011698</v>
       </c>
-      <c r="R79" s="1">
-        <f t="shared" si="8"/>
+      <c r="T79" s="1">
+        <f t="shared" si="12"/>
         <v>0.1309780992</v>
       </c>
-      <c r="S79" s="1">
-        <f t="shared" si="9"/>
+      <c r="U79" s="1">
+        <f t="shared" si="13"/>
         <v>0.60183666079999998</v>
       </c>
-      <c r="T79">
-        <v>1</v>
-      </c>
-      <c r="U79" t="s">
-        <v>108</v>
-      </c>
-      <c r="V79" t="s">
-        <v>108</v>
+      <c r="V79">
+        <v>1</v>
       </c>
       <c r="W79" t="s">
+        <v>108</v>
+      </c>
+      <c r="X79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y79" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L79" xr:uid="{DCD53002-A865-C64E-B35E-CD07C191FC0D}"/>
-  <sortState ref="K5:W79">
+  <autoFilter ref="A1:N79" xr:uid="{DCD53002-A865-C64E-B35E-CD07C191FC0D}"/>
+  <sortState ref="M5:Y79">
+    <sortCondition ref="P5:P79"/>
     <sortCondition ref="N5:N79"/>
-    <sortCondition ref="L5:L79"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
